--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gnai2-Cav1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gnai2-Cav1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>203.7816646666667</v>
+        <v>82.98768099999999</v>
       </c>
       <c r="H2">
-        <v>611.344994</v>
+        <v>248.963043</v>
       </c>
       <c r="I2">
-        <v>0.6667327591988204</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="J2">
-        <v>0.6667327591988205</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>409.6166503333334</v>
+        <v>560.2199806666666</v>
       </c>
       <c r="N2">
-        <v>1228.849951</v>
+        <v>1680.659942</v>
       </c>
       <c r="O2">
-        <v>0.6234125531262766</v>
+        <v>0.6936344353529325</v>
       </c>
       <c r="P2">
-        <v>0.6234125531262766</v>
+        <v>0.6936344353529326</v>
       </c>
       <c r="Q2">
-        <v>83472.3628801106</v>
+        <v>46491.35704539149</v>
       </c>
       <c r="R2">
-        <v>751251.2659209954</v>
+        <v>418422.2134085235</v>
       </c>
       <c r="S2">
-        <v>0.4156495716650636</v>
+        <v>0.3114074652119534</v>
       </c>
       <c r="T2">
-        <v>0.4156495716650637</v>
+        <v>0.3114074652119535</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>203.7816646666667</v>
+        <v>82.98768099999999</v>
       </c>
       <c r="H3">
-        <v>611.344994</v>
+        <v>248.963043</v>
       </c>
       <c r="I3">
-        <v>0.6667327591988204</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="J3">
-        <v>0.6667327591988205</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>169.486152</v>
       </c>
       <c r="O3">
-        <v>0.08598266586728959</v>
+        <v>0.06994956469466522</v>
       </c>
       <c r="P3">
-        <v>0.08598266586728959</v>
+        <v>0.06994956469466522</v>
       </c>
       <c r="Q3">
-        <v>11512.72339750257</v>
+        <v>4688.420905364504</v>
       </c>
       <c r="R3">
-        <v>103614.5105775231</v>
+        <v>42195.78814828054</v>
       </c>
       <c r="S3">
-        <v>0.05732746005696822</v>
+        <v>0.03140388585690933</v>
       </c>
       <c r="T3">
-        <v>0.05732746005696823</v>
+        <v>0.03140388585690933</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>203.7816646666667</v>
+        <v>82.98768099999999</v>
       </c>
       <c r="H4">
-        <v>611.344994</v>
+        <v>248.963043</v>
       </c>
       <c r="I4">
-        <v>0.6667327591988204</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="J4">
-        <v>0.6667327591988205</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>572.830414</v>
       </c>
       <c r="O4">
-        <v>0.2906047810064339</v>
+        <v>0.2364159999524024</v>
       </c>
       <c r="P4">
-        <v>0.2906047810064338</v>
+        <v>0.2364159999524024</v>
       </c>
       <c r="Q4">
-        <v>38910.77844553861</v>
+        <v>15845.95588804331</v>
       </c>
       <c r="R4">
-        <v>350197.0060098476</v>
+        <v>142613.6029923898</v>
       </c>
       <c r="S4">
-        <v>0.1937557274767886</v>
+        <v>0.1061390604739325</v>
       </c>
       <c r="T4">
-        <v>0.1937557274767886</v>
+        <v>0.1061390604739325</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>63.14058933333334</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H5">
         <v>189.421768</v>
       </c>
       <c r="I5">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="J5">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>409.6166503333334</v>
+        <v>560.2199806666666</v>
       </c>
       <c r="N5">
-        <v>1228.849951</v>
+        <v>1680.659942</v>
       </c>
       <c r="O5">
-        <v>0.6234125531262766</v>
+        <v>0.6936344353529325</v>
       </c>
       <c r="P5">
-        <v>0.6234125531262766</v>
+        <v>0.6936344353529326</v>
       </c>
       <c r="Q5">
-        <v>25863.4367027926</v>
+        <v>35372.61973560193</v>
       </c>
       <c r="R5">
-        <v>232770.9303251334</v>
+        <v>318353.5776204174</v>
       </c>
       <c r="S5">
-        <v>0.1287866548445787</v>
+        <v>0.2369321643809066</v>
       </c>
       <c r="T5">
-        <v>0.1287866548445787</v>
+        <v>0.2369321643809066</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>63.14058933333334</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H6">
         <v>189.421768</v>
       </c>
       <c r="I6">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="J6">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>169.486152</v>
       </c>
       <c r="O6">
-        <v>0.08598266586728959</v>
+        <v>0.06994956469466522</v>
       </c>
       <c r="P6">
-        <v>0.08598266586728959</v>
+        <v>0.06994956469466522</v>
       </c>
       <c r="Q6">
         <v>3567.151840372971</v>
@@ -818,10 +818,10 @@
         <v>32104.36656335674</v>
       </c>
       <c r="S6">
-        <v>0.01776258732060592</v>
+        <v>0.02389342413799931</v>
       </c>
       <c r="T6">
-        <v>0.01776258732060592</v>
+        <v>0.02389342413799931</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>63.14058933333334</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H7">
         <v>189.421768</v>
       </c>
       <c r="I7">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="J7">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>572.830414</v>
       </c>
       <c r="O7">
-        <v>0.2906047810064339</v>
+        <v>0.2364159999524024</v>
       </c>
       <c r="P7">
-        <v>0.2906047810064338</v>
+        <v>0.2364159999524024</v>
       </c>
       <c r="Q7">
         <v>12056.28330933911</v>
@@ -880,10 +880,10 @@
         <v>108506.549784052</v>
       </c>
       <c r="S7">
-        <v>0.06003410973997356</v>
+        <v>0.08075515243775042</v>
       </c>
       <c r="T7">
-        <v>0.06003410973997355</v>
+        <v>0.08075515243775042</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>116.159826</v>
       </c>
       <c r="I8">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="J8">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>409.6166503333334</v>
+        <v>560.2199806666666</v>
       </c>
       <c r="N8">
-        <v>1228.849951</v>
+        <v>1680.659942</v>
       </c>
       <c r="O8">
-        <v>0.6234125531262766</v>
+        <v>0.6936344353529325</v>
       </c>
       <c r="P8">
-        <v>0.6234125531262766</v>
+        <v>0.6936344353529326</v>
       </c>
       <c r="Q8">
-        <v>15860.33294314095</v>
+        <v>21691.68515865445</v>
       </c>
       <c r="R8">
-        <v>142742.9964882685</v>
+        <v>195225.1664278901</v>
       </c>
       <c r="S8">
-        <v>0.07897632661663426</v>
+        <v>0.1452948057600724</v>
       </c>
       <c r="T8">
-        <v>0.07897632661663426</v>
+        <v>0.1452948057600725</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>116.159826</v>
       </c>
       <c r="I9">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="J9">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>169.486152</v>
       </c>
       <c r="O9">
-        <v>0.08598266586728959</v>
+        <v>0.06994956469466522</v>
       </c>
       <c r="P9">
-        <v>0.08598266586728959</v>
+        <v>0.06994956469466522</v>
       </c>
       <c r="Q9">
         <v>2187.497991747728</v>
@@ -1004,10 +1004,10 @@
         <v>19687.48192572955</v>
       </c>
       <c r="S9">
-        <v>0.01089261848971545</v>
+        <v>0.01465225469975658</v>
       </c>
       <c r="T9">
-        <v>0.01089261848971545</v>
+        <v>0.01465225469975658</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>116.159826</v>
       </c>
       <c r="I10">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="J10">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>572.830414</v>
       </c>
       <c r="O10">
-        <v>0.2906047810064339</v>
+        <v>0.2364159999524024</v>
       </c>
       <c r="P10">
-        <v>0.2906047810064338</v>
+        <v>0.2364159999524024</v>
       </c>
       <c r="Q10">
-        <v>7393.320135305329</v>
+        <v>7393.320135305331</v>
       </c>
       <c r="R10">
         <v>66539.88121774797</v>
       </c>
       <c r="S10">
-        <v>0.0368149437896717</v>
+        <v>0.04952178704071945</v>
       </c>
       <c r="T10">
-        <v>0.03681494378967169</v>
+        <v>0.04952178704071945</v>
       </c>
     </row>
   </sheetData>
